--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB87F7D2-87AB-4E7A-9E3D-EF14497534F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC918A-6DD9-4BD2-A390-A10F1A355783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>WoS_type_max</t>
+  </si>
+  <si>
+    <t>WoS_time_mu</t>
+  </si>
+  <si>
+    <t>WoS_time_sigma</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,25 +491,25 @@
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="18.6640625" customWidth="1"/>
-    <col min="27" max="27" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="18.6640625" customWidth="1"/>
+    <col min="29" max="29" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,73 +535,79 @@
         <v>36</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -621,73 +633,79 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>99</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>60</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>15</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>15</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>340</v>
       </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
         <v>1.5</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -713,73 +731,79 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>99</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>60</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>15</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>15</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>340</v>
       </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>1.5</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -805,73 +829,79 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>14</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>5</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>99</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>60</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>15</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>15</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>340</v>
       </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>1.5</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -897,73 +927,79 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>600</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>10</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>5</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>99</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>60</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>15</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>15</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>340</v>
       </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>1.5</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -989,75 +1025,79 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>23</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>99</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>60</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>15</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>15</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>340</v>
       </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
         <v>1.5</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1069,10 +1109,10 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1084,10 +1124,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1099,10 +1139,10 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1114,6 +1154,8 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F469EDA-9704-46ED-A1F3-79D181A19A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E5B92-E61E-4B5F-B237-45B19BBC1D40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>WoS_time_min</t>
+  </si>
+  <si>
+    <t>conmu_time_sigma</t>
+  </si>
+  <si>
+    <t>conmu_time_mu</t>
+  </si>
+  <si>
+    <t>conmu_time_max</t>
+  </si>
+  <si>
+    <t>conmu_time_min</t>
   </si>
 </sst>
 </file>
@@ -493,39 +505,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11.33203125" customWidth="1"/>
-    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="18.6640625" customWidth="1"/>
-    <col min="33" max="33" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="24" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" customWidth="1"/>
+    <col min="26" max="26" width="19.88671875" customWidth="1"/>
+    <col min="27" max="27" width="18.21875" customWidth="1"/>
+    <col min="28" max="32" width="18.6640625" customWidth="1"/>
+    <col min="33" max="33" width="20.88671875" customWidth="1"/>
+    <col min="34" max="34" width="23.109375" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,8 +645,20 @@
       <c r="AJ1" t="s">
         <v>24</v>
       </c>
+      <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -744,8 +767,20 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>32</v>
+      </c>
+      <c r="AL2">
+        <v>7</v>
+      </c>
+      <c r="AM2">
+        <v>20</v>
+      </c>
+      <c r="AN2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -854,8 +889,20 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>29</v>
+      </c>
+      <c r="AL3">
+        <v>7</v>
+      </c>
+      <c r="AM3">
+        <v>18</v>
+      </c>
+      <c r="AN3">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -964,8 +1011,20 @@
       <c r="AJ4">
         <v>2</v>
       </c>
+      <c r="AK4">
+        <v>15</v>
+      </c>
+      <c r="AL4">
+        <v>5</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
+      <c r="AN4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1133,20 @@
       <c r="AJ5">
         <v>2</v>
       </c>
+      <c r="AK5">
+        <v>30</v>
+      </c>
+      <c r="AL5">
+        <v>8</v>
+      </c>
+      <c r="AM5">
+        <v>15</v>
+      </c>
+      <c r="AN5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1255,20 @@
       <c r="AJ6">
         <v>1</v>
       </c>
+      <c r="AK6">
+        <v>25</v>
+      </c>
+      <c r="AL6">
+        <v>10</v>
+      </c>
+      <c r="AM6">
+        <v>30</v>
+      </c>
+      <c r="AN6">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1202,7 +1285,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1219,7 +1302,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1236,7 +1319,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E5B92-E61E-4B5F-B237-45B19BBC1D40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2712F-F71E-4F2E-BF24-7FAFF0E32821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,10 +652,10 @@
         <v>47</v>
       </c>
       <c r="AM1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN1" t="s">
         <v>49</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2712F-F71E-4F2E-BF24-7FAFF0E32821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A8086-E8B8-4CD9-AE49-4E39F308C51B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>2</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AA6">
         <v>0</v>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A8086-E8B8-4CD9-AE49-4E39F308C51B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DE846-3927-4614-A7E2-0E98ECC184FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,16 +168,16 @@
     <t>WoS_time_min</t>
   </si>
   <si>
-    <t>conmu_time_sigma</t>
-  </si>
-  <si>
-    <t>conmu_time_mu</t>
-  </si>
-  <si>
-    <t>conmu_time_max</t>
-  </si>
-  <si>
-    <t>conmu_time_min</t>
+    <t>conmutime_mu</t>
+  </si>
+  <si>
+    <t>conmutime_sigma</t>
+  </si>
+  <si>
+    <t>conmutime_min</t>
+  </si>
+  <si>
+    <t>conmutime_max</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,16 +646,16 @@
         <v>24</v>
       </c>
       <c r="AK1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL1" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" t="s">
-        <v>47</v>
-      </c>
       <c r="AM1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" t="s">
         <v>50</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DE846-3927-4614-A7E2-0E98ECC184FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03385E9-3E8F-405C-83AA-85247DC39F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,18 +126,6 @@
     <t>Dutties_time_max</t>
   </si>
   <si>
-    <t>WoS_action_type_mu</t>
-  </si>
-  <si>
-    <t>WoS_action_type_sigma</t>
-  </si>
-  <si>
-    <t>WoS_action_type_min</t>
-  </si>
-  <si>
-    <t>WoS_action_type_max</t>
-  </si>
-  <si>
     <t>WoS_type_mu</t>
   </si>
   <si>
@@ -178,6 +166,18 @@
   </si>
   <si>
     <t>conmutime_max</t>
+  </si>
+  <si>
+    <t>WoS_fixed_mu</t>
+  </si>
+  <si>
+    <t>WoS_fixed_sigma</t>
+  </si>
+  <si>
+    <t>WoS_fixed_min</t>
+  </si>
+  <si>
+    <t>WoS_fixed_max</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,13 @@
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="12" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.44140625" customWidth="1"/>
     <col min="13" max="16" width="9.33203125" customWidth="1"/>
     <col min="17" max="17" width="14.109375" customWidth="1"/>
     <col min="18" max="20" width="16.33203125" customWidth="1"/>
@@ -550,40 +556,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -592,10 +598,10 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U1" t="s">
         <v>17</v>
@@ -646,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="AK1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
@@ -672,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>480</v>
@@ -794,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>480</v>
@@ -916,13 +922,13 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03385E9-3E8F-405C-83AA-85247DC39F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1CE9E8-0990-45BB-8ED5-14B7541791E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -72,36 +72,6 @@
     <t>youth</t>
   </si>
   <si>
-    <t>walk_speed_mu</t>
-  </si>
-  <si>
-    <t>walk_speed_sigma</t>
-  </si>
-  <si>
-    <t>Dutties_type_mu</t>
-  </si>
-  <si>
-    <t>Dutties_type_sigma</t>
-  </si>
-  <si>
-    <t>Dutties_type_min</t>
-  </si>
-  <si>
-    <t>Dutties_type_max</t>
-  </si>
-  <si>
-    <t>Entertainment_type_mu</t>
-  </si>
-  <si>
-    <t>Entertainment_type_sigma</t>
-  </si>
-  <si>
-    <t>Entertainment_type_min</t>
-  </si>
-  <si>
-    <t>Entertainment_type_max</t>
-  </si>
-  <si>
     <t>Dutties_amount_mu</t>
   </si>
   <si>
@@ -126,28 +96,10 @@
     <t>Dutties_time_max</t>
   </si>
   <si>
-    <t>WoS_type_mu</t>
-  </si>
-  <si>
-    <t>WoS_type_sigma</t>
-  </si>
-  <si>
-    <t>WoS_type_min</t>
-  </si>
-  <si>
-    <t>WoS_type_max</t>
-  </si>
-  <si>
     <t>WoS_time_mu</t>
   </si>
   <si>
     <t>WoS_time_sigma</t>
-  </si>
-  <si>
-    <t>walk_speed_max</t>
-  </si>
-  <si>
-    <t>walk_speed_min</t>
   </si>
   <si>
     <t>WoS_time_max</t>
@@ -219,12 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,25 +473,17 @@
     <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="18" max="20" width="16.33203125" customWidth="1"/>
-    <col min="21" max="24" width="11.33203125" customWidth="1"/>
-    <col min="25" max="25" width="17.77734375" customWidth="1"/>
-    <col min="26" max="26" width="19.88671875" customWidth="1"/>
-    <col min="27" max="27" width="18.21875" customWidth="1"/>
-    <col min="28" max="32" width="18.6640625" customWidth="1"/>
-    <col min="33" max="33" width="20.88671875" customWidth="1"/>
-    <col min="34" max="34" width="23.109375" customWidth="1"/>
-    <col min="35" max="35" width="21.44140625" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" customWidth="1"/>
-    <col min="37" max="37" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" customWidth="1"/>
+    <col min="16" max="20" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,115 +497,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="T1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -705,88 +598,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>8.3000000000000004E-2</v>
+        <v>30</v>
       </c>
       <c r="R2">
-        <v>0.09</v>
+        <v>15</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="T2">
-        <v>7.4999999999999997E-2</v>
+        <v>120</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0.3</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>2</v>
-      </c>
-      <c r="AC2">
-        <v>60</v>
-      </c>
-      <c r="AD2">
-        <v>15</v>
-      </c>
-      <c r="AE2">
-        <v>15</v>
-      </c>
-      <c r="AF2">
-        <v>120</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>32</v>
-      </c>
-      <c r="AL2">
-        <v>7</v>
-      </c>
-      <c r="AM2">
-        <v>20</v>
-      </c>
-      <c r="AN2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -827,88 +672,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>7.8E-2</v>
+        <v>30</v>
       </c>
       <c r="R3">
-        <v>8.5000000000000006E-2</v>
+        <v>15</v>
       </c>
       <c r="S3">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>7.1999999999999995E-2</v>
+        <v>15</v>
+      </c>
+      <c r="T3">
+        <v>120</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0.3</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AC3">
-        <v>60</v>
-      </c>
-      <c r="AD3">
-        <v>15</v>
-      </c>
-      <c r="AE3">
-        <v>15</v>
-      </c>
-      <c r="AF3">
-        <v>120</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>29</v>
-      </c>
-      <c r="AL3">
-        <v>7</v>
-      </c>
-      <c r="AM3">
-        <v>18</v>
-      </c>
-      <c r="AN3">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -946,91 +743,43 @@
         <v>360</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>5.3999999999999999E-2</v>
+        <v>60</v>
       </c>
       <c r="R4">
-        <v>7.1999999999999995E-2</v>
+        <v>15</v>
       </c>
       <c r="S4">
-        <v>8.3000000000000004E-2</v>
+        <v>15</v>
       </c>
       <c r="T4">
-        <v>4.2000000000000003E-2</v>
+        <v>120</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.3</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
-      <c r="AC4">
-        <v>60</v>
-      </c>
-      <c r="AD4">
-        <v>15</v>
-      </c>
-      <c r="AE4">
-        <v>15</v>
-      </c>
-      <c r="AF4">
-        <v>120</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>2</v>
-      </c>
-      <c r="AK4">
-        <v>15</v>
-      </c>
-      <c r="AL4">
-        <v>5</v>
-      </c>
-      <c r="AM4">
-        <v>10</v>
-      </c>
-      <c r="AN4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1068,91 +817,43 @@
         <v>240</v>
       </c>
       <c r="M5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>7.8E-2</v>
+        <v>60</v>
       </c>
       <c r="R5">
-        <v>0.09</v>
+        <v>15</v>
       </c>
       <c r="S5">
-        <v>0.1</v>
-      </c>
-      <c r="T5" s="2">
-        <v>6.7000000000000004E-2</v>
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <v>120</v>
       </c>
       <c r="U5">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X5">
-        <v>2</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0.3</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>60</v>
-      </c>
-      <c r="AD5">
-        <v>15</v>
-      </c>
-      <c r="AE5">
-        <v>15</v>
-      </c>
-      <c r="AF5">
-        <v>120</v>
-      </c>
-      <c r="AG5">
-        <v>0.5</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>2</v>
-      </c>
-      <c r="AK5">
-        <v>30</v>
-      </c>
-      <c r="AL5">
-        <v>8</v>
-      </c>
-      <c r="AM5">
-        <v>15</v>
-      </c>
-      <c r="AN5">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1193,154 +894,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>4.8000000000000001E-2</v>
+        <v>60</v>
       </c>
       <c r="R6">
-        <v>7.1999999999999995E-2</v>
+        <v>15</v>
       </c>
       <c r="S6">
-        <v>8.3000000000000004E-2</v>
+        <v>15</v>
       </c>
       <c r="T6">
-        <v>4.2000000000000003E-2</v>
+        <v>120</v>
       </c>
       <c r="U6">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0.3</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6">
-        <v>60</v>
-      </c>
-      <c r="AD6">
-        <v>15</v>
-      </c>
-      <c r="AE6">
-        <v>15</v>
-      </c>
-      <c r="AF6">
-        <v>120</v>
-      </c>
-      <c r="AG6">
-        <v>0.5</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>25</v>
-      </c>
-      <c r="AL6">
-        <v>10</v>
-      </c>
-      <c r="AM6">
-        <v>30</v>
-      </c>
-      <c r="AN6">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1CE9E8-0990-45BB-8ED5-14B7541791E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DDE48D-1D16-48B9-B428-68F4240D318F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>WoS_fixed_max</t>
+  </si>
+  <si>
+    <t>walk_speed_mu</t>
+  </si>
+  <si>
+    <t>walk_speed_sigma</t>
+  </si>
+  <si>
+    <t>walk_speed_max</t>
+  </si>
+  <si>
+    <t>walk_speed_min</t>
   </si>
 </sst>
 </file>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,9 +493,13 @@
     <col min="22" max="22" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +572,20 @@
       <c r="X1" t="s">
         <v>30</v>
       </c>
+      <c r="Y1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -630,8 +658,20 @@
       <c r="X2">
         <v>50</v>
       </c>
+      <c r="Y2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Z2">
+        <v>0.09</v>
+      </c>
+      <c r="AA2">
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -704,8 +744,20 @@
       <c r="X3">
         <v>45</v>
       </c>
+      <c r="Y3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Z3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AA3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AB3">
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -778,8 +830,20 @@
       <c r="X4">
         <v>30</v>
       </c>
+      <c r="Y4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Z4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AB4">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -852,8 +916,20 @@
       <c r="X5">
         <v>45</v>
       </c>
+      <c r="Y5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Z5">
+        <v>0.09</v>
+      </c>
+      <c r="AA5">
+        <v>0.1</v>
+      </c>
+      <c r="AB5">
+        <v>6.7000000000000004E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -926,8 +1002,20 @@
       <c r="X6">
         <v>45</v>
       </c>
+      <c r="Y6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Z6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA6">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AB6">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -937,7 +1025,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -947,7 +1035,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -957,7 +1045,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DDE48D-1D16-48B9-B428-68F4240D318F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EC5C21-B274-4173-8C09-BA89CF92A3A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>walk_speed_min</t>
+  </si>
+  <si>
+    <t>dist_wos_mu</t>
+  </si>
+  <si>
+    <t>dist_wos_sigma</t>
+  </si>
+  <si>
+    <t>dist_poi_mu</t>
+  </si>
+  <si>
+    <t>dist_poi_sigma</t>
   </si>
 </sst>
 </file>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AB1048576"/>
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,9 +509,13 @@
     <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +600,20 @@
       <c r="AB1" t="s">
         <v>38</v>
       </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -670,8 +698,20 @@
       <c r="AB2">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="AC2">
+        <v>14000</v>
+      </c>
+      <c r="AD2">
+        <v>500</v>
+      </c>
+      <c r="AE2">
+        <v>2000</v>
+      </c>
+      <c r="AF2">
+        <v>500</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -756,8 +796,20 @@
       <c r="AB3">
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="AC3">
+        <v>14000</v>
+      </c>
+      <c r="AD3">
+        <v>500</v>
+      </c>
+      <c r="AE3">
+        <v>2000</v>
+      </c>
+      <c r="AF3">
+        <v>500</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -842,8 +894,20 @@
       <c r="AB4">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="AC4">
+        <v>2000</v>
+      </c>
+      <c r="AD4">
+        <v>500</v>
+      </c>
+      <c r="AE4">
+        <v>2000</v>
+      </c>
+      <c r="AF4">
+        <v>500</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -928,8 +992,20 @@
       <c r="AB5">
         <v>6.7000000000000004E-2</v>
       </c>
+      <c r="AC5">
+        <v>2000</v>
+      </c>
+      <c r="AD5">
+        <v>500</v>
+      </c>
+      <c r="AE5">
+        <v>2000</v>
+      </c>
+      <c r="AF5">
+        <v>500</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1090,20 @@
       <c r="AB6">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="AC6">
+        <v>14000</v>
+      </c>
+      <c r="AD6">
+        <v>500</v>
+      </c>
+      <c r="AE6">
+        <v>2000</v>
+      </c>
+      <c r="AF6">
+        <v>500</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1025,7 +1113,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1035,7 +1123,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1045,7 +1133,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EC5C21-B274-4173-8C09-BA89CF92A3A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D3AC7-4F7D-4E17-913C-0328448A081E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +702,7 @@
         <v>14000</v>
       </c>
       <c r="AD2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AE2">
         <v>2000</v>
@@ -800,7 +800,7 @@
         <v>14000</v>
       </c>
       <c r="AD3">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AE3">
         <v>2000</v>
@@ -1094,7 +1094,7 @@
         <v>14000</v>
       </c>
       <c r="AD6">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AE6">
         <v>2000</v>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D3AC7-4F7D-4E17-913C-0328448A081E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14943ECC-9D24-4203-8769-0B42B7A1009C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>dist_poi_sigma</t>
+  </si>
+  <si>
+    <t>dependent_type_mu</t>
+  </si>
+  <si>
+    <t>dependent_type_sigma</t>
+  </si>
+  <si>
+    <t>dependent_type_max</t>
+  </si>
+  <si>
+    <t>dependent_type_min</t>
   </si>
 </sst>
 </file>
@@ -478,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,32 +502,36 @@
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" customWidth="1"/>
-    <col min="16" max="20" width="18.6640625" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" customWidth="1"/>
+    <col min="20" max="24" width="18.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,91 +545,103 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -627,91 +655,103 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>480</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>180</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>480</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>240</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.25</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>30</v>
+      </c>
+      <c r="V2">
+        <v>15</v>
+      </c>
+      <c r="W2">
+        <v>15</v>
+      </c>
+      <c r="X2">
+        <v>120</v>
+      </c>
+      <c r="Y2">
+        <v>32</v>
+      </c>
+      <c r="Z2">
+        <v>7</v>
+      </c>
+      <c r="AA2">
+        <v>20</v>
+      </c>
+      <c r="AB2">
+        <v>50</v>
+      </c>
+      <c r="AC2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AD2">
+        <v>0.09</v>
+      </c>
+      <c r="AE2">
         <v>0.1</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>30</v>
-      </c>
-      <c r="R2">
-        <v>15</v>
-      </c>
-      <c r="S2">
-        <v>15</v>
-      </c>
-      <c r="T2">
-        <v>120</v>
-      </c>
-      <c r="U2">
-        <v>32</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>20</v>
-      </c>
-      <c r="X2">
-        <v>50</v>
-      </c>
-      <c r="Y2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="Z2">
-        <v>0.09</v>
-      </c>
-      <c r="AA2">
-        <v>0.1</v>
-      </c>
-      <c r="AB2">
+      <c r="AF2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>14000</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>5000</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <v>2000</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -725,91 +765,103 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>480</v>
       </c>
-      <c r="J3">
+      <c r="N3">
         <v>180</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>480</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>240</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.25</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>30</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>15</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>15</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>120</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>29</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>7</v>
       </c>
-      <c r="W3">
+      <c r="AA3">
         <v>18</v>
       </c>
-      <c r="X3">
+      <c r="AB3">
         <v>45</v>
       </c>
-      <c r="Y3">
+      <c r="AC3">
         <v>7.8E-2</v>
       </c>
-      <c r="Z3">
+      <c r="AD3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AA3">
+      <c r="AE3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AB3">
+      <c r="AF3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <v>14000</v>
       </c>
-      <c r="AD3">
+      <c r="AH3">
         <v>5000</v>
       </c>
-      <c r="AE3">
+      <c r="AI3">
         <v>2000</v>
       </c>
-      <c r="AF3">
+      <c r="AJ3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -823,91 +875,103 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>360</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>480</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>360</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.25</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>60</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>15</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>15</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>120</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>15</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>5</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>10</v>
       </c>
-      <c r="X4">
+      <c r="AB4">
         <v>30</v>
       </c>
-      <c r="Y4">
+      <c r="AC4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="Z4">
+      <c r="AD4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AE4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AF4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <v>2000</v>
       </c>
-      <c r="AD4">
+      <c r="AH4">
         <v>500</v>
       </c>
-      <c r="AE4">
+      <c r="AI4">
         <v>2000</v>
       </c>
-      <c r="AF4">
+      <c r="AJ4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -924,88 +988,100 @@
         <v>0.5</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>480</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>180</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>480</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>240</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.25</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>60</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <v>15</v>
-      </c>
-      <c r="S5">
-        <v>15</v>
-      </c>
-      <c r="T5">
-        <v>120</v>
-      </c>
-      <c r="U5">
-        <v>30</v>
-      </c>
-      <c r="V5">
-        <v>8</v>
       </c>
       <c r="W5">
         <v>15</v>
       </c>
       <c r="X5">
+        <v>120</v>
+      </c>
+      <c r="Y5">
+        <v>30</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <v>15</v>
+      </c>
+      <c r="AB5">
         <v>45</v>
       </c>
-      <c r="Y5">
+      <c r="AC5">
         <v>7.8E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AD5">
         <v>0.09</v>
       </c>
-      <c r="AA5">
+      <c r="AE5">
         <v>0.1</v>
       </c>
-      <c r="AB5">
+      <c r="AF5">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>2000</v>
       </c>
-      <c r="AD5">
+      <c r="AH5">
         <v>500</v>
       </c>
-      <c r="AE5">
+      <c r="AI5">
         <v>2000</v>
       </c>
-      <c r="AF5">
+      <c r="AJ5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1022,126 +1098,138 @@
         <v>0.5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>480</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>180</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>480</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>240</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0.1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.25</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>2</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>60</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <v>15</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>15</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>120</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>25</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>10</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <v>30</v>
       </c>
-      <c r="X6">
+      <c r="AB6">
         <v>45</v>
       </c>
-      <c r="Y6">
+      <c r="AC6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AD6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AE6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AF6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AC6">
+      <c r="AG6">
         <v>14000</v>
       </c>
-      <c r="AD6">
+      <c r="AH6">
         <v>5000</v>
       </c>
-      <c r="AE6">
+      <c r="AI6">
         <v>2000</v>
       </c>
-      <c r="AF6">
+      <c r="AJ6">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14943ECC-9D24-4203-8769-0B42B7A1009C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02032C2D-BF1D-4147-B6D9-A9DDBDE629E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,16 +156,16 @@
     <t>dist_poi_sigma</t>
   </si>
   <si>
-    <t>dependent_type_mu</t>
-  </si>
-  <si>
-    <t>dependent_type_sigma</t>
-  </si>
-  <si>
-    <t>dependent_type_max</t>
-  </si>
-  <si>
-    <t>dependent_type_min</t>
+    <t>independent_type_mu</t>
+  </si>
+  <si>
+    <t>independent_type_sigma</t>
+  </si>
+  <si>
+    <t>independent_type_max</t>
+  </si>
+  <si>
+    <t>independent_type_min</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02032C2D-BF1D-4147-B6D9-A9DDBDE629E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD7B9A0-F125-4D10-9646-D9D23E4766BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>independent_type_min</t>
+  </si>
+  <si>
+    <t>homestay_mu</t>
+  </si>
+  <si>
+    <t>homestay_sigma</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,32 +512,33 @@
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" customWidth="1"/>
-    <col min="19" max="19" width="18.21875" customWidth="1"/>
-    <col min="20" max="24" width="18.6640625" customWidth="1"/>
-    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" customWidth="1"/>
+    <col min="21" max="21" width="18.21875" customWidth="1"/>
+    <col min="22" max="26" width="18.6640625" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,91 +564,97 @@
         <v>46</v>
       </c>
       <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -667,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.16900000000000004</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -679,79 +692,85 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>480</v>
       </c>
       <c r="P2">
+        <v>180</v>
+      </c>
+      <c r="Q2">
+        <v>480</v>
+      </c>
+      <c r="R2">
         <v>240</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>0.25</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>2</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>30</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>15</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>15</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>120</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>32</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>7</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>20</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>50</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>0.09</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0.1</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>14000</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>5000</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>2000</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -777,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.20099999999999996</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -789,79 +808,85 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>480</v>
       </c>
       <c r="P3">
+        <v>180</v>
+      </c>
+      <c r="Q3">
+        <v>480</v>
+      </c>
+      <c r="R3">
         <v>240</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.25</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>2</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>30</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>15</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>15</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>120</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>29</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>7</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>18</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>45</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>7.8E-2</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>14000</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>5000</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>2000</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -887,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -896,73 +921,73 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>360</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>30</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>480</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>360</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>0.25</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>2</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>60</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>15</v>
-      </c>
-      <c r="W4">
-        <v>15</v>
-      </c>
-      <c r="X4">
-        <v>120</v>
       </c>
       <c r="Y4">
         <v>15</v>
       </c>
       <c r="Z4">
+        <v>120</v>
+      </c>
+      <c r="AA4">
+        <v>15</v>
+      </c>
+      <c r="AB4">
         <v>5</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>10</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>30</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AG4">
-        <v>2000</v>
-      </c>
-      <c r="AH4">
-        <v>500</v>
       </c>
       <c r="AI4">
         <v>2000</v>
@@ -970,8 +995,14 @@
       <c r="AJ4">
         <v>500</v>
       </c>
+      <c r="AK4">
+        <v>2000</v>
+      </c>
+      <c r="AL4">
+        <v>500</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -997,82 +1028,82 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>480</v>
       </c>
       <c r="P5">
+        <v>180</v>
+      </c>
+      <c r="Q5">
+        <v>480</v>
+      </c>
+      <c r="R5">
         <v>240</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>0.25</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>2</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>60</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>15</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>15</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>120</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>30</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>8</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>15</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>45</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>7.8E-2</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>0.09</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.1</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="AG5">
-        <v>2000</v>
-      </c>
-      <c r="AH5">
-        <v>500</v>
       </c>
       <c r="AI5">
         <v>2000</v>
@@ -1080,8 +1111,14 @@
       <c r="AJ5">
         <v>500</v>
       </c>
+      <c r="AK5">
+        <v>2000</v>
+      </c>
+      <c r="AL5">
+        <v>500</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1107,129 +1144,135 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0.16900000000000004</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0.5</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>480</v>
       </c>
       <c r="P6">
+        <v>180</v>
+      </c>
+      <c r="Q6">
+        <v>480</v>
+      </c>
+      <c r="R6">
         <v>240</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>0.25</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>2</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>60</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>15</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>15</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>120</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>25</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>10</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>30</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>45</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>14000</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>5000</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>2000</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD7B9A0-F125-4D10-9646-D9D23E4766BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B909B66-690F-40A3-B2D0-9068D7B4739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_citizen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B909B66-690F-40A3-B2D0-9068D7B4739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A338CE7-7214-48A8-A95B-B057E15FF648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J6"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,16 +758,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI2">
-        <v>14000</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="AJ2">
-        <v>5000</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AK2">
-        <v>2000</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="AL2">
-        <v>500</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -874,16 +874,16 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="AI3">
-        <v>14000</v>
+        <v>2.5790000000000002</v>
       </c>
       <c r="AJ3">
-        <v>5000</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="AK3">
-        <v>2000</v>
+        <v>1.143</v>
       </c>
       <c r="AL3">
-        <v>500</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
@@ -990,16 +990,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AI4">
-        <v>2000</v>
+        <v>1.296</v>
       </c>
       <c r="AJ4">
-        <v>500</v>
+        <v>0.372</v>
       </c>
       <c r="AK4">
-        <v>2000</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="AL4">
-        <v>500</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
@@ -1106,16 +1106,16 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AI5">
-        <v>2000</v>
+        <v>1.139</v>
       </c>
       <c r="AJ5">
-        <v>500</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AK5">
-        <v>2000</v>
+        <v>1.139</v>
       </c>
       <c r="AL5">
-        <v>500</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
@@ -1222,16 +1222,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AI6">
-        <v>14000</v>
+        <v>2.2930000000000001</v>
       </c>
       <c r="AJ6">
-        <v>5000</v>
+        <v>0.32</v>
       </c>
       <c r="AK6">
-        <v>2000</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="AL6">
-        <v>500</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
